--- a/excel-R/aleatorio-normal.xlsx
+++ b/excel-R/aleatorio-normal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34bf2af71bbc2e43/Documentos/GitHub/industrial-stats/hojas-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{2B880C7D-E8C1-4CC8-8EA2-9AEBCBEEC7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{398716B6-DA38-4C2F-A694-2451CA23C766}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{2B880C7D-E8C1-4CC8-8EA2-9AEBCBEEC7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EFD1EF-19E5-4D97-B275-E2768CDD4B7C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,11 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -47,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -126,11 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -696,103 +699,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>222</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223.75</c:v>
+                  <c:v>218.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.5</c:v>
+                  <c:v>220.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.25</c:v>
+                  <c:v>222.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.75</c:v>
+                  <c:v>225.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232.5</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.25</c:v>
+                  <c:v>229.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>237.75</c:v>
+                  <c:v>232.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>239.5</c:v>
+                  <c:v>234.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>241.25</c:v>
+                  <c:v>236.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>243</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>244.75</c:v>
+                  <c:v>239.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>246.5</c:v>
+                  <c:v>241.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>248.25</c:v>
+                  <c:v>243.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>250</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>251.75</c:v>
+                  <c:v>246.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>253.5</c:v>
+                  <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>255.25</c:v>
+                  <c:v>250.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>257</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>258.75</c:v>
+                  <c:v>253.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>260.5</c:v>
+                  <c:v>255.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>262.25</c:v>
+                  <c:v>257.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>264</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>265.75</c:v>
+                  <c:v>260.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>267.5</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>269.25</c:v>
+                  <c:v>264.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>271</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>272.75</c:v>
+                  <c:v>267.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>274.5</c:v>
+                  <c:v>269.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>276.25</c:v>
+                  <c:v>271.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>278</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="410793936"/>
@@ -1041,7 +1044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="410788112"/>
@@ -1089,7 +1092,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1698,7 +1701,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2000,15 +2003,15 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,10 +2023,10 @@
         <v>252</v>
       </c>
       <c r="F1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>-4</v>
       </c>
@@ -2060,14 +2063,14 @@
       </c>
       <c r="F3">
         <f>F$1+($A3*F$2)</f>
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G3">
         <f>_xlfn.NORM.DIST(F3,F$1,F$2,FALSE)</f>
         <v>1.9118603680697908E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>-3.75</v>
       </c>
@@ -2089,14 +2092,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>223.75</v>
+        <v>218.75</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
         <v>5.0370811766777923E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>-3.5</v>
       </c>
@@ -2118,14 +2121,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>225.5</v>
+        <v>220.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>1.2466895643510858E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>-3.25</v>
       </c>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>227.25</v>
+        <v>222.25</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>2.8986400818568117E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>-3</v>
       </c>
@@ -2176,14 +2179,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>6.3312120170542965E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>-2.75</v>
       </c>
@@ -2205,14 +2208,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>230.75</v>
+        <v>225.75</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>1.2990803573701504E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>-2.5</v>
       </c>
@@ -2234,14 +2237,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>232.5</v>
+        <v>227.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>2.5040429276526489E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>-2.25</v>
       </c>
@@ -2263,14 +2266,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>234.25</v>
+        <v>229.25</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>4.5342359765239175E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>-2</v>
       </c>
@@ -2292,14 +2295,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>7.712995216169723E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>-1.75</v>
       </c>
@@ -2321,14 +2324,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>237.75</v>
+        <v>232.75</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>1.2325331260930217E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>-1.5</v>
       </c>
@@ -2350,14 +2353,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>239.5</v>
+        <v>234.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>1.8502513666555965E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>-1.25</v>
       </c>
@@ -2379,14 +2382,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>241.25</v>
+        <v>236.25</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>2.6092726484145987E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>-1</v>
       </c>
@@ -2408,14 +2411,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>3.4567246359877624E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>-0.75</v>
       </c>
@@ -2437,14 +2440,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>244.75</v>
+        <v>239.75</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>4.3019633164972058E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>-0.5</v>
       </c>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>246.5</v>
+        <v>241.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>5.0295046680614214E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>-0.25</v>
       </c>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>248.25</v>
+        <v>243.25</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>5.523830240040703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>0</v>
       </c>
@@ -2524,14 +2527,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>5.6991754343061814E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>0.25</v>
       </c>
@@ -2553,14 +2556,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>251.75</v>
+        <v>246.75</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>5.523830240040703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>0.5</v>
       </c>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>253.5</v>
+        <v>248.5</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>5.0295046680614214E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>0.75</v>
       </c>
@@ -2611,14 +2614,14 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>255.25</v>
+        <v>250.25</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>4.3019633164972058E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -2640,14 +2643,14 @@
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>3.4567246359877624E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>1.25</v>
       </c>
@@ -2669,14 +2672,14 @@
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>258.75</v>
+        <v>253.75</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>2.6092726484145987E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>1.5</v>
       </c>
@@ -2698,14 +2701,14 @@
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>260.5</v>
+        <v>255.5</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>1.8502513666555965E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>1.75</v>
       </c>
@@ -2727,14 +2730,14 @@
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>262.25</v>
+        <v>257.25</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>1.2325331260930217E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -2756,14 +2759,14 @@
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>7.712995216169723E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>2.25</v>
       </c>
@@ -2785,14 +2788,14 @@
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>265.75</v>
+        <v>260.75</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>4.5342359765239175E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>2.5</v>
       </c>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>267.5</v>
+        <v>262.5</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>2.5040429276526489E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>2.75</v>
       </c>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>269.25</v>
+        <v>264.25</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>1.2990803573701504E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -2872,14 +2875,14 @@
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>6.3312120170542965E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>3.25</v>
       </c>
@@ -2901,14 +2904,14 @@
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>272.75</v>
+        <v>267.75</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>2.8986400818568117E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>3.5</v>
       </c>
@@ -2930,14 +2933,14 @@
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>274.5</v>
+        <v>269.5</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>1.2466895643510858E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="4">
         <v>3.75</v>
       </c>
@@ -2959,14 +2962,14 @@
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>276.25</v>
+        <v>271.25</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>5.0370811766777923E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
@@ -3020,7 +3023,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -3042,7 +3045,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
